--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-Cxcr2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H2">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01989833333333333</v>
+        <v>0.01339666666666667</v>
       </c>
       <c r="N2">
-        <v>0.05969500000000001</v>
+        <v>0.04019</v>
       </c>
       <c r="O2">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128816</v>
       </c>
       <c r="P2">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128814</v>
       </c>
       <c r="Q2">
-        <v>3.888838515451666</v>
+        <v>2.646422684565555</v>
       </c>
       <c r="R2">
-        <v>34.999546639065</v>
+        <v>23.81780416109</v>
       </c>
       <c r="S2">
-        <v>0.00101531074456816</v>
+        <v>0.0284421286023362</v>
       </c>
       <c r="T2">
-        <v>0.00101531074456816</v>
+        <v>0.02844212860233619</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H3">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I3">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J3">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>2.520453</v>
+        <v>0.1260863333333333</v>
       </c>
       <c r="N3">
-        <v>7.561359000000001</v>
+        <v>0.378259</v>
       </c>
       <c r="O3">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="P3">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="Q3">
-        <v>492.585712511217</v>
+        <v>24.90751923963877</v>
       </c>
       <c r="R3">
-        <v>4433.271412600953</v>
+        <v>224.167673156749</v>
       </c>
       <c r="S3">
-        <v>0.1286058972482982</v>
+        <v>0.2676907470264018</v>
       </c>
       <c r="T3">
-        <v>0.1286058972482982</v>
+        <v>0.2676907470264018</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H4">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I4">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J4">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.526766666666667</v>
+        <v>0.02013</v>
       </c>
       <c r="N4">
-        <v>10.5803</v>
+        <v>0.06039</v>
       </c>
       <c r="O4">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="P4">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="Q4">
-        <v>689.2550154122333</v>
+        <v>3.976548044809999</v>
       </c>
       <c r="R4">
-        <v>6203.2951387101</v>
+        <v>35.78893240329</v>
       </c>
       <c r="S4">
-        <v>0.1799529654201274</v>
+        <v>0.04273750052986024</v>
       </c>
       <c r="T4">
-        <v>0.1799529654201275</v>
+        <v>0.04273750052986023</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>239.481758</v>
       </c>
       <c r="I5">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J5">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01989833333333333</v>
+        <v>0.01339666666666667</v>
       </c>
       <c r="N5">
-        <v>0.05969500000000001</v>
+        <v>0.04019</v>
       </c>
       <c r="O5">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128816</v>
       </c>
       <c r="P5">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128814</v>
       </c>
       <c r="Q5">
-        <v>1.588429282645555</v>
+        <v>1.069419094891111</v>
       </c>
       <c r="R5">
-        <v>14.29586354381</v>
+        <v>9.624771854019999</v>
       </c>
       <c r="S5">
-        <v>0.0004147123392366977</v>
+        <v>0.01149346081564451</v>
       </c>
       <c r="T5">
-        <v>0.0004147123392366978</v>
+        <v>0.01149346081564451</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,40 +794,40 @@
         <v>239.481758</v>
       </c>
       <c r="I6">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J6">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.520453</v>
+        <v>0.1260863333333333</v>
       </c>
       <c r="N6">
-        <v>7.561359000000001</v>
+        <v>0.378259</v>
       </c>
       <c r="O6">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="P6">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="Q6">
-        <v>201.200838465458</v>
+        <v>10.06512558881355</v>
       </c>
       <c r="R6">
-        <v>1810.807546189122</v>
+        <v>90.58613029932199</v>
       </c>
       <c r="S6">
-        <v>0.05253017637487994</v>
+        <v>0.1081737993198526</v>
       </c>
       <c r="T6">
-        <v>0.05253017637487995</v>
+        <v>0.1081737993198526</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>239.481758</v>
       </c>
       <c r="I7">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J7">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>3.526766666666667</v>
+        <v>0.02013</v>
       </c>
       <c r="N7">
-        <v>10.5803</v>
+        <v>0.06039</v>
       </c>
       <c r="O7">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="P7">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="Q7">
-        <v>281.5320937963778</v>
+        <v>1.60692259618</v>
       </c>
       <c r="R7">
-        <v>2533.7888441674</v>
+        <v>14.46230336562</v>
       </c>
       <c r="S7">
-        <v>0.07350332461388782</v>
+        <v>0.01727021892651833</v>
       </c>
       <c r="T7">
-        <v>0.07350332461388784</v>
+        <v>0.01727021892651833</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H8">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I8">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J8">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,28 +930,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.01989833333333333</v>
+        <v>0.01339666666666667</v>
       </c>
       <c r="N8">
-        <v>0.05969500000000001</v>
+        <v>0.04019</v>
       </c>
       <c r="O8">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128816</v>
       </c>
       <c r="P8">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128814</v>
       </c>
       <c r="Q8">
-        <v>3.233711134803889</v>
+        <v>1.99375110641</v>
       </c>
       <c r="R8">
-        <v>29.10340021323501</v>
+        <v>17.94375995769</v>
       </c>
       <c r="S8">
-        <v>0.0008442679342304239</v>
+        <v>0.02142761460604409</v>
       </c>
       <c r="T8">
-        <v>0.000844267934230424</v>
+        <v>0.02142761460604409</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H9">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I9">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J9">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>2.520453</v>
+        <v>0.1260863333333333</v>
       </c>
       <c r="N9">
-        <v>7.561359000000001</v>
+        <v>0.378259</v>
       </c>
       <c r="O9">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="P9">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="Q9">
-        <v>409.6029951009231</v>
+        <v>18.764725050001</v>
       </c>
       <c r="R9">
-        <v>3686.426955908308</v>
+        <v>168.882525450009</v>
       </c>
       <c r="S9">
-        <v>0.1069404965726547</v>
+        <v>0.2016717609670971</v>
       </c>
       <c r="T9">
-        <v>0.1069404965726548</v>
+        <v>0.2016717609670971</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H10">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I10">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J10">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>3.526766666666667</v>
+        <v>0.02013</v>
       </c>
       <c r="N10">
-        <v>10.5803</v>
+        <v>0.06039</v>
       </c>
       <c r="O10">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="P10">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="Q10">
-        <v>573.1406972035445</v>
+        <v>2.99583551421</v>
       </c>
       <c r="R10">
-        <v>5158.266274831901</v>
+        <v>26.96251962789</v>
       </c>
       <c r="S10">
-        <v>0.1496374574845155</v>
+        <v>0.03219740348492169</v>
       </c>
       <c r="T10">
-        <v>0.1496374574845156</v>
+        <v>0.03219740348492169</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H11">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I11">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J11">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.01989833333333333</v>
+        <v>0.01339666666666667</v>
       </c>
       <c r="N11">
-        <v>0.05969500000000001</v>
+        <v>0.04019</v>
       </c>
       <c r="O11">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128816</v>
       </c>
       <c r="P11">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128814</v>
       </c>
       <c r="Q11">
-        <v>0.6713414845022224</v>
+        <v>0.47460174069</v>
       </c>
       <c r="R11">
-        <v>6.042073360520002</v>
+        <v>4.271415666209999</v>
       </c>
       <c r="S11">
-        <v>0.0001752760418775782</v>
+        <v>0.005100728550402969</v>
       </c>
       <c r="T11">
-        <v>0.0001752760418775782</v>
+        <v>0.005100728550402968</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H12">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I12">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J12">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>2.520453</v>
+        <v>0.1260863333333333</v>
       </c>
       <c r="N12">
-        <v>7.561359000000001</v>
+        <v>0.378259</v>
       </c>
       <c r="O12">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="P12">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="Q12">
-        <v>85.03650181613604</v>
+        <v>4.466841996309</v>
       </c>
       <c r="R12">
-        <v>765.3285163452243</v>
+        <v>40.201577966781</v>
       </c>
       <c r="S12">
-        <v>0.02220160946034682</v>
+        <v>0.04800687934179838</v>
       </c>
       <c r="T12">
-        <v>0.02220160946034682</v>
+        <v>0.04800687934179837</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H13">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I13">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J13">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>3.526766666666667</v>
+        <v>0.02013</v>
       </c>
       <c r="N13">
-        <v>10.5803</v>
+        <v>0.06039</v>
       </c>
       <c r="O13">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="P13">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="Q13">
-        <v>118.9880946223112</v>
+        <v>0.71314255089</v>
       </c>
       <c r="R13">
-        <v>1070.8928516008</v>
+        <v>6.41828295801</v>
       </c>
       <c r="S13">
-        <v>0.03106580292951405</v>
+        <v>0.007664418939010581</v>
       </c>
       <c r="T13">
-        <v>0.03106580292951405</v>
+        <v>0.00766441893901058</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H14">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I14">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J14">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,28 +1302,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.01989833333333333</v>
+        <v>0.01339666666666667</v>
       </c>
       <c r="N14">
-        <v>0.05969500000000001</v>
+        <v>0.04019</v>
       </c>
       <c r="O14">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128816</v>
       </c>
       <c r="P14">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128814</v>
       </c>
       <c r="Q14">
-        <v>3.179575404131112</v>
+        <v>1.625348109415556</v>
       </c>
       <c r="R14">
-        <v>28.61617863718</v>
+        <v>14.62813298474</v>
       </c>
       <c r="S14">
-        <v>0.0008301339996896281</v>
+        <v>0.01746824504686039</v>
       </c>
       <c r="T14">
-        <v>0.0008301339996896283</v>
+        <v>0.01746824504686039</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H15">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I15">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J15">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>2.520453</v>
+        <v>0.1260863333333333</v>
       </c>
       <c r="N15">
-        <v>7.561359000000001</v>
+        <v>0.378259</v>
       </c>
       <c r="O15">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="P15">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="Q15">
-        <v>402.7458095017241</v>
+        <v>15.29740110772378</v>
       </c>
       <c r="R15">
-        <v>3624.712285515517</v>
+        <v>137.676609969514</v>
       </c>
       <c r="S15">
-        <v>0.1051502000127174</v>
+        <v>0.1644070889071999</v>
       </c>
       <c r="T15">
-        <v>0.1051502000127175</v>
+        <v>0.1644070889071999</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H16">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I16">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J16">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>3.526766666666667</v>
+        <v>0.02013</v>
       </c>
       <c r="N16">
-        <v>10.5803</v>
+        <v>0.06039</v>
       </c>
       <c r="O16">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="P16">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="Q16">
-        <v>563.5457182063557</v>
+        <v>2.44226853266</v>
       </c>
       <c r="R16">
-        <v>5071.911463857201</v>
+        <v>21.98041679394</v>
       </c>
       <c r="S16">
-        <v>0.1471323688234555</v>
+        <v>0.02624800493605123</v>
       </c>
       <c r="T16">
-        <v>0.1471323688234555</v>
+        <v>0.02624800493605123</v>
       </c>
     </row>
   </sheetData>
